--- a/Analysis/SST/sst_analysis_results.xlsx
+++ b/Analysis/SST/sst_analysis_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_42Ga7yjlA5oLJCd</t>
+          <t>R_4EEZWAH8SF10F8e</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -505,36 +505,36 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_9j8Niq4DZA1y7Op</t>
+          <t>R_4AKE20ENCrCGxUl</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -544,36 +544,36 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_92Xn58Elv9fCbLJ</t>
+          <t>R_9aZFWvCRMGokDwl</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -592,27 +592,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_4pWgwYKsPFaTWcp</t>
+          <t>R_4eV7QBpawwD6eOr</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -622,36 +622,36 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.15</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_4ELN7Q0714WIXDZ</t>
+          <t>R_91jRA37lX3YUEbP</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -661,17 +661,17 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
@@ -679,18 +679,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.35</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_9fPoQx2VAiJtvot</t>
+          <t>R_4PvVrWZ4ldg9ZuE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -700,36 +700,36 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_4EEZWAH8SF10F8e</t>
+          <t>R_9Y3cXt4ARx4xD6T</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -739,36 +739,36 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_4AKE20ENCrCGxUl</t>
+          <t>R_9N32winq5vbF1El</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -778,36 +778,36 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_9aZFWvCRMGokDwl</t>
+          <t>R_9uYGNjx9yWaODxD</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -817,36 +817,36 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_4eV7QBpawwD6eOr</t>
+          <t>R_9OPvlHXlbPmz754</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -856,36 +856,36 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_91jRA37lX3YUEbP</t>
+          <t>R_9x36NNwdNT2QnEB</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -895,36 +895,36 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_4PvVrWZ4ldg9ZuE</t>
+          <t>R_4DfI1n39Bzpi2xH</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -934,36 +934,36 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
         <v>18</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R_9Y3cXt4ARx4xD6T</t>
+          <t>R_9emki3uWpm88jEt</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -973,36 +973,36 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.55</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_9N32winq5vbF1El</t>
+          <t>R_91tsT1u49aBUhks</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1015,33 +1015,33 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_9uYGNjx9yWaODxD</t>
+          <t>R_9LAP8tEg6HUmoat</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1051,17 +1051,17 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="F16" t="n">
-        <v>14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4</v>
-      </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
@@ -1069,18 +1069,18 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_9OPvlHXlbPmz754</t>
+          <t>R_4GCVAoEofofJmxX</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1090,36 +1090,36 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.45</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_4rHDTNQ0TLPg3iz</t>
+          <t>R_4dtvPF6tKUsY2Dr</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1132,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1147,18 +1147,18 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_9x36NNwdNT2QnEB</t>
+          <t>R_9bTZgIxUTHOBB65</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1168,36 +1168,36 @@
         <v>20</v>
       </c>
       <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_4DfI1n39Bzpi2xH</t>
+          <t>R_4E1hPlVcrRYDEgI</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1207,36 +1207,36 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_9emki3uWpm88jEt</t>
+          <t>R_9HiPuZ7ggaUWYXm</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1246,36 +1246,36 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_9gLQpOlUhCZbZf0</t>
+          <t>R_4npneE7C0d2fzFf</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1285,36 +1285,36 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_91tsT1u49aBUhks</t>
+          <t>R_95Avzk7ufiikhMK</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1324,16 +1324,16 @@
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1342,18 +1342,18 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.55</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_9LAP8tEg6HUmoat</t>
+          <t>R_4QWwuNV77zEYamm</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1363,16 +1363,16 @@
         <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
@@ -1381,18 +1381,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_4GCVAoEofofJmxX</t>
+          <t>R_4Nn2YPE5XSoLk77</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1402,36 +1402,36 @@
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_4dtvPF6tKUsY2Dr</t>
+          <t>R_92mbrhLaUBLIZyA</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1441,36 +1441,36 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.35</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R_9bTZgIxUTHOBB65</t>
+          <t>R_41tTqc4rClQAQ4c</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1480,57 +1480,75 @@
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R_459tvSmsiMQmAJb</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>R_49TyR8AUyP9f0KR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6842105263157895</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R_9GEAlR8ckucpR5i</t>
+          <t>R_99UYrIivDcdeF7r</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1540,75 +1558,75 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.15</v>
+        <v>0.375</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R_95AaIqXMdbZ4Fhr</t>
+          <t>R_9d0I0cLEUygFnzD</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Complete: 19/19.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R_4lPSocYI5nk7Coh</t>
+          <t>R_47kRU4DvHWNnjGG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1618,16 +1636,16 @@
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1636,39 +1654,57 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R_4rHse7kHHEjzHly</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>R_9cj5AYT2isbQ025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2631578947368421</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R_4DYHJAe9FwcAbYM</t>
+          <t>R_96nUPcB7vcJX3jf</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1678,36 +1714,36 @@
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R_4E1hPlVcrRYDEgI</t>
+          <t>R_4af1NjqrrNzcgut</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1717,16 +1753,16 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>6</v>
-      </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -1735,60 +1771,96 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R_9IrA4sK4uNKxOU1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>R_9ctFQKbw2qIyZBw</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R_4flYM0NAGQpPrrZ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>R_4BsQya8zBjRULSx</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R_9HiPuZ7ggaUWYXm</t>
+          <t>R_9UVGly5LAKAE4DH</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1798,16 +1870,16 @@
         <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1816,18 +1888,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R_4npneE7C0d2fzFf</t>
+          <t>R_9hLtTGFf64ROzgA</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1837,10 +1909,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>6</v>
@@ -1855,18 +1927,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R_95Avzk7ufiikhMK</t>
+          <t>R_438xPgSQurWsGJ7</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1876,36 +1948,36 @@
         <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R_4QWwuNV77zEYamm</t>
+          <t>R_5EnHXfM9Ih1jcUw</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1915,36 +1987,36 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R_4Nn2YPE5XSoLk77</t>
+          <t>R_4ooRca600URzSMF</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1954,36 +2026,36 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R_92mbrhLaUBLIZyA</t>
+          <t>R_9z60gjDTdtBwz7i</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1993,57 +2065,75 @@
         <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R_4lCiksiXKcfJDNf</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>R_4z5hWHzjGPmlo3v</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4736842105263158</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R_41tTqc4rClQAQ4c</t>
+          <t>R_4R46XO9OwMarEXe</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2053,36 +2143,36 @@
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R_49TyR8AUyP9f0KR</t>
+          <t>R_4pyzOQaqk31zidB</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2092,16 +2182,16 @@
         <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2110,18 +2200,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.65</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R_99UYrIivDcdeF7r</t>
+          <t>R_9RXtm3TtL486t6z</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2131,272 +2221,29 @@
         <v>20</v>
       </c>
       <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Complete: 20/20.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R_9d0I0cLEUygFnzD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>20</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>18</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Complete: 20/20.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R_425z6FKj0bv5S0N</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>R_9kBu3A4VzYEc7u4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>R_47kRU4DvHWNnjGG</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>14</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Complete: 20/20.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>R_9cj5AYT2isbQ025</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>20</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>14</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Complete: 20/20.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>R_4emUmach5eEaD7j</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>R_4LTZEyvJAjeBq3o</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>R_9EoZrU2zlZGVxmh</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>R_9FLpP7aU380tJw8</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>No data</t>
+          <t>Complete: 20/20</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2286,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2298,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2310,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2326,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.3622</t>
+          <t>0.4424</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2338,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.2323</t>
+          <t>0.2432</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2362,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>1.0000</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2374,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.3500</t>
+          <t>0.4737</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2390,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2402,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2442,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2454,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2466,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2478,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2490,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>8.09</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2502,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.36</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2518,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>10.44</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2530,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.84</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2542,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.47</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2554,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2566,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2578,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2798,31 +2645,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3622</t>
+          <t>0.4424</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.2323</t>
+          <t>0.2432</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.3500</t>
+          <t>0.4737</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.36</t>
         </is>
       </c>
     </row>
